--- a/media/salary_files/黃睦翔_P110031_薪資條.xlsx
+++ b/media/salary_files/黃睦翔_P110031_薪資條.xlsx
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>36751</v>
+        <v>36750</v>
       </c>
       <c r="C6" s="23" t="inlineStr">
         <is>
@@ -1062,28 +1062,40 @@
         </is>
       </c>
       <c r="D6" s="47" t="n">
-        <v>1200</v>
+        <v>45800</v>
       </c>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
     </row>
     <row r="7" ht="16.2" customHeight="1" s="40">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="50" t="n"/>
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>職務加給</t>
+        </is>
+      </c>
+      <c r="B7" s="50" t="n">
+        <v>12000</v>
+      </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>健保</t>
         </is>
       </c>
       <c r="D7" s="50" t="n">
-        <v>1200</v>
+        <v>34800</v>
       </c>
       <c r="E7" s="51" t="n"/>
       <c r="F7" s="52" t="n"/>
     </row>
     <row r="8" ht="16.2" customHeight="1" s="40">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="50" t="n"/>
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>手機加給</t>
+        </is>
+      </c>
+      <c r="B8" s="50" t="n">
+        <v>2000</v>
+      </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>勞退</t>
@@ -1214,7 +1226,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>36751</v>
+        <v>50750</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1222,7 +1234,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>4605</v>
+        <v>82805</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1230,7 +1242,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>32146</v>
+        <v>-32055</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/黃睦翔_P110031_薪資條.xlsx
+++ b/media/salary_files/黃睦翔_P110031_薪資條.xlsx
@@ -999,7 +999,7 @@
       </c>
       <c r="E3" s="36" t="inlineStr">
         <is>
-          <t>工務組</t>
+          <t>業務組</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="D6" s="47" t="n">
-        <v>45800</v>
+        <v>1100</v>
       </c>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D7" s="50" t="n">
-        <v>34800</v>
+        <v>540</v>
       </c>
       <c r="E7" s="51" t="n"/>
       <c r="F7" s="52" t="n"/>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>勞退</t>
+          <t>*勞退</t>
         </is>
       </c>
       <c r="D8" s="50" t="n">
-        <v>2205</v>
+        <v>3600</v>
       </c>
       <c r="E8" s="51" t="n"/>
       <c r="F8" s="52" t="n"/>
@@ -1110,8 +1110,14 @@
     <row r="9" ht="16.2" customHeight="1" s="40">
       <c r="A9" s="7" t="n"/>
       <c r="B9" s="50" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="50" t="n"/>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>勞退自提(2%)</t>
+        </is>
+      </c>
+      <c r="D9" s="50" t="n">
+        <v>1200</v>
+      </c>
       <c r="E9" s="51" t="n"/>
       <c r="F9" s="52" t="n"/>
     </row>
@@ -1234,7 +1240,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>82805</v>
+        <v>2840</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1242,7 +1248,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>-32055</v>
+        <v>47910</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/黃睦翔_P110031_薪資條.xlsx
+++ b/media/salary_files/黃睦翔_P110031_薪資條.xlsx
@@ -953,15 +953,15 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.33203125" customWidth="1" style="40" min="1" max="1"/>
     <col width="13" customWidth="1" style="40" min="2" max="2"/>
-    <col width="18.44140625" customWidth="1" style="40" min="3" max="3"/>
+    <col width="21" customWidth="1" style="40" min="3" max="3"/>
     <col width="15.44140625" bestFit="1" customWidth="1" style="40" min="4" max="4"/>
     <col width="10.21875" customWidth="1" style="40" min="5" max="5"/>
     <col width="14.5546875" customWidth="1" style="40" min="6" max="6"/>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>2840</v>
+        <v>6440</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>47910</v>
+        <v>44310</v>
       </c>
     </row>
   </sheetData>
